--- a/CashFlow/FBHS_cashflow.xlsx
+++ b/CashFlow/FBHS_cashflow.xlsx
@@ -78,7 +78,7 @@
     <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="14.3"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="14.3"/>
     <col min="9" max="9" bestFit="1" customWidth="1" width="14.3"/>
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="C6" s="0" t="n">
-        <v>3040000000.0</v>
+        <v>-91800000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2892000000.0</v>
+        <v>22400000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2133900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1398000000.0</v>
+        <v>28500000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>637800000.0</v>
+        <v>-38300000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>-85400000.0</v>
@@ -1031,19 +1031,19 @@
         </is>
       </c>
       <c r="C8" s="0" t="n">
-        <v>142900000.0</v>
+        <v>2055000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>108300000.0</v>
+        <v>1894000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>78900000.0</v>
+        <v>1397200000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>87400000.0</v>
+        <v>979200000.0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>25800000.0</v>
+        <v>466000000.0</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>6200000.0</v>
@@ -3691,10 +3691,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>-34600000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>-122700000.0</v>
